--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 36,88</t>
+          <t>20,16; 36,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 48,06</t>
+          <t>30,59; 48,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,03; 57,62</t>
+          <t>39,24; 57,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,75</t>
+          <t>3,8; 14,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,83; 40,15</t>
+          <t>23,46; 39,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,88; 56,86</t>
+          <t>38,07; 58,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 46,65</t>
+          <t>28,89; 46,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 12,15</t>
+          <t>0,45; 11,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 36,07</t>
+          <t>24,44; 35,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,99; 50,55</t>
+          <t>36,41; 50,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,6; 49,58</t>
+          <t>36,82; 49,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,53</t>
+          <t>2,53; 9,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,75; 38,61</t>
+          <t>30,53; 38,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,41; 42,88</t>
+          <t>34,61; 43,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,52; 40,0</t>
+          <t>31,87; 39,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,98</t>
+          <t>5,16; 10,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,67; 42,85</t>
+          <t>34,94; 42,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,21; 40,6</t>
+          <t>32,17; 40,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,3; 43,33</t>
+          <t>34,87; 43,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,88</t>
+          <t>5,36; 8,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,84; 39,56</t>
+          <t>34,03; 39,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 40,41</t>
+          <t>34,53; 40,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,28</t>
+          <t>34,58; 40,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,79; 8,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,88; 32,82</t>
+          <t>26,69; 32,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,66; 34,77</t>
+          <t>28,63; 35,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,75</t>
+          <t>27,84; 33,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,7</t>
+          <t>8,56; 13,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,13; 39,44</t>
+          <t>32,86; 39,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,39</t>
+          <t>29,26; 35,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,08</t>
+          <t>27,26; 32,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 16,31</t>
+          <t>12,41; 16,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 35,24</t>
+          <t>30,76; 35,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 33,96</t>
+          <t>29,73; 34,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 32,7</t>
+          <t>28,12; 32,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 14,5</t>
+          <t>11,14; 14,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,91</t>
+          <t>24,46; 31,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,03; 42,42</t>
+          <t>34,75; 42,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 42,55</t>
+          <t>35,17; 42,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,22</t>
+          <t>15,09; 22,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,11</t>
+          <t>24,61; 30,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,44; 43,81</t>
+          <t>36,29; 43,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 43,16</t>
+          <t>35,9; 43,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 54,37</t>
+          <t>18,55; 54,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 30,44</t>
+          <t>25,47; 30,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 41,91</t>
+          <t>36,7; 41,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,83; 42,07</t>
+          <t>36,85; 42,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 44,45</t>
+          <t>18,25; 41,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,59; 30,65</t>
+          <t>24,7; 30,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,71; 53,47</t>
+          <t>46,5; 53,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,87; 41,02</t>
+          <t>34,69; 41,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,83; 36,03</t>
+          <t>29,43; 36,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 37,9</t>
+          <t>32,29; 38,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,3; 51,6</t>
+          <t>45,56; 51,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,28; 42,69</t>
+          <t>36,57; 43,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 37,41</t>
+          <t>31,88; 37,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,55; 33,51</t>
+          <t>29,46; 33,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,9; 51,32</t>
+          <t>46,8; 51,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,42; 40,92</t>
+          <t>36,56; 41,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 36,04</t>
+          <t>31,63; 35,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,09; 31,18</t>
+          <t>27,79; 31,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,95; 41,44</t>
+          <t>37,96; 41,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,32; 37,59</t>
+          <t>34,35; 37,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,81</t>
+          <t>16,74; 19,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,88; 36,13</t>
+          <t>32,7; 36,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,26; 41,64</t>
+          <t>38,27; 41,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,91; 38,3</t>
+          <t>34,99; 38,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,52; 31,36</t>
+          <t>19,51; 30,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,17</t>
+          <t>30,83; 33,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 40,98</t>
+          <t>38,49; 40,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,15; 37,43</t>
+          <t>35,12; 37,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,74; 25,48</t>
+          <t>18,78; 24,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 36,35</t>
+          <t>19,86; 37,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,59; 48,55</t>
+          <t>31,1; 48,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,24; 57,68</t>
+          <t>40,2; 58,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 39,86</t>
+          <t>24,02; 40,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,07; 58,13</t>
+          <t>37,56; 58,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 46,47</t>
+          <t>28,36; 46,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 35,47</t>
+          <t>23,99; 35,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,41; 50,71</t>
+          <t>36,95; 50,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,82; 49,25</t>
+          <t>36,69; 49,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,53; 38,16</t>
+          <t>30,82; 38,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 43,35</t>
+          <t>34,38; 42,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,87; 39,86</t>
+          <t>31,66; 39,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 42,81</t>
+          <t>34,51; 43,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,17; 40,16</t>
+          <t>32,39; 40,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,87; 43,22</t>
+          <t>34,52; 43,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,03; 39,5</t>
+          <t>34,05; 39,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,53; 40,34</t>
+          <t>34,52; 40,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 40,44</t>
+          <t>34,46; 40,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,69; 32,85</t>
+          <t>26,58; 32,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,63; 35,12</t>
+          <t>28,89; 34,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,84; 33,7</t>
+          <t>27,59; 33,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,86; 39,48</t>
+          <t>33,4; 39,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,26; 35,28</t>
+          <t>29,08; 35,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,9</t>
+          <t>27,34; 33,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,76; 35,32</t>
+          <t>30,8; 35,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 34,19</t>
+          <t>29,95; 34,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,12; 32,29</t>
+          <t>28,43; 32,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 31,61</t>
+          <t>24,77; 31,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,47</t>
+          <t>34,91; 42,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 42,44</t>
+          <t>35,71; 43,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 30,94</t>
+          <t>24,57; 31,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 43,79</t>
+          <t>36,4; 44,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,9; 43,42</t>
+          <t>36,15; 43,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,47; 30,11</t>
+          <t>25,4; 30,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 41,98</t>
+          <t>36,86; 42,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,85; 42,26</t>
+          <t>36,9; 41,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,49</t>
+          <t>24,7; 30,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,5; 53,16</t>
+          <t>46,67; 53,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,69; 41,01</t>
+          <t>34,91; 41,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 38,08</t>
+          <t>32,14; 38,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,56; 51,68</t>
+          <t>45,36; 51,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,57; 43,05</t>
+          <t>36,8; 42,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,46; 33,67</t>
+          <t>29,32; 33,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,8; 51,41</t>
+          <t>46,86; 51,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,56; 41,04</t>
+          <t>36,66; 41,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,79; 31,0</t>
+          <t>27,96; 31,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,96; 41,46</t>
+          <t>38,09; 41,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,35; 37,64</t>
+          <t>34,27; 37,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,06</t>
+          <t>32,8; 36,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,27; 41,56</t>
+          <t>38,1; 41,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,99; 38,29</t>
+          <t>34,98; 38,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,83; 33,15</t>
+          <t>30,85; 33,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,49; 40,97</t>
+          <t>38,61; 40,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,12; 37,41</t>
+          <t>35,1; 37,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 37,09</t>
+          <t>20,04; 36,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,1; 48,35</t>
+          <t>30,51; 48,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,2; 58,7</t>
+          <t>40,03; 57,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,09</t>
+          <t>3,94; 13,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 40,12</t>
+          <t>23,83; 40,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,56; 58,45</t>
+          <t>37,88; 56,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,36; 46,46</t>
+          <t>28,89; 46,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,67</t>
+          <t>0,41; 12,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 35,59</t>
+          <t>24,71; 36,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,95; 50,28</t>
+          <t>36,99; 50,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,69; 49,8</t>
+          <t>36,6; 49,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,89</t>
+          <t>2,68; 9,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,54</t>
+          <t>30,75; 38,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,38; 42,65</t>
+          <t>34,41; 42,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,66; 39,69</t>
+          <t>31,52; 40,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,03</t>
+          <t>4,87; 9,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,51; 43,1</t>
+          <t>34,67; 42,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,39; 40,6</t>
+          <t>32,21; 40,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,52; 43,2</t>
+          <t>35,3; 43,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,55</t>
+          <t>5,28; 8,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 39,42</t>
+          <t>33,84; 39,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,52; 40,44</t>
+          <t>34,61; 40,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 40,34</t>
+          <t>34,45; 40,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,71</t>
+          <t>5,72; 8,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,58; 32,82</t>
+          <t>26,88; 32,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,87</t>
+          <t>28,66; 34,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,59; 33,74</t>
+          <t>27,46; 33,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,52</t>
+          <t>8,9; 13,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 39,54</t>
+          <t>33,13; 39,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,08; 35,39</t>
+          <t>29,13; 35,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,34; 33,26</t>
+          <t>27,46; 33,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,51</t>
+          <t>12,26; 16,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,8; 35,1</t>
+          <t>30,86; 35,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,95; 34,23</t>
+          <t>29,73; 33,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,43; 32,49</t>
+          <t>28,34; 32,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,49</t>
+          <t>11,03; 14,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 31,66</t>
+          <t>24,88; 31,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 42,52</t>
+          <t>35,03; 42,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,71; 43,02</t>
+          <t>35,38; 42,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,13</t>
+          <t>15,43; 22,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 31,1</t>
+          <t>24,69; 31,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,4; 44,12</t>
+          <t>36,44; 43,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,15; 43,46</t>
+          <t>35,78; 43,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 54,23</t>
+          <t>18,84; 54,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 30,34</t>
+          <t>25,51; 30,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,86; 42,05</t>
+          <t>36,7; 41,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,9; 41,87</t>
+          <t>36,83; 42,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,25; 41,89</t>
+          <t>18,36; 44,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,57</t>
+          <t>24,59; 30,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,67; 53,5</t>
+          <t>46,71; 53,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,91; 41,04</t>
+          <t>34,87; 41,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,43; 36,19</t>
+          <t>29,83; 36,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,14; 38,17</t>
+          <t>31,92; 37,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,36; 51,83</t>
+          <t>45,3; 51,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,8; 42,93</t>
+          <t>36,28; 42,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,18</t>
+          <t>31,84; 37,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,32; 33,52</t>
+          <t>29,55; 33,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,86; 51,5</t>
+          <t>46,9; 51,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,66; 41,18</t>
+          <t>36,42; 40,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,63; 35,88</t>
+          <t>31,73; 36,04</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,96; 31,08</t>
+          <t>28,09; 31,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,09; 41,45</t>
+          <t>37,95; 41,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,27; 37,61</t>
+          <t>34,32; 37,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,71</t>
+          <t>16,7; 19,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,06</t>
+          <t>32,88; 36,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,1; 41,54</t>
+          <t>38,26; 41,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,98; 38,29</t>
+          <t>34,91; 38,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 30,83</t>
+          <t>19,52; 31,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,85; 33,16</t>
+          <t>30,77; 33,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,61; 40,96</t>
+          <t>38,48; 40,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,1; 37,41</t>
+          <t>35,15; 37,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,78; 24,7</t>
+          <t>18,74; 25,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 36,88</t>
+          <t>29,64; 37,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 48,06</t>
+          <t>35,3; 42,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,03; 57,62</t>
+          <t>34,55; 41,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,75</t>
+          <t>5,34; 9,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,83; 40,15</t>
+          <t>33,84; 40,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,88; 56,86</t>
+          <t>34,24; 41,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 46,65</t>
+          <t>34,83; 42,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 12,15</t>
+          <t>4,48; 7,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 36,07</t>
+          <t>33,07; 38,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,99; 50,55</t>
+          <t>35,81; 41,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,6; 49,58</t>
+          <t>35,53; 40,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,53</t>
+          <t>5,33; 7,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,75; 38,61</t>
+          <t>26,88; 32,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,41; 42,88</t>
+          <t>28,66; 34,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,52; 40,0</t>
+          <t>27,46; 33,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,98</t>
+          <t>4,88; 13,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,67; 42,85</t>
+          <t>33,13; 39,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,21; 40,6</t>
+          <t>29,13; 35,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,3; 43,33</t>
+          <t>27,46; 33,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,88</t>
+          <t>12,34; 16,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,84; 39,56</t>
+          <t>30,86; 35,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 40,41</t>
+          <t>29,73; 33,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,28</t>
+          <t>28,34; 32,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>8,12; 14,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>28,73%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,88; 32,82</t>
+          <t>24,88; 31,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,66; 34,77</t>
+          <t>35,03; 42,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,75</t>
+          <t>35,38; 42,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,7</t>
+          <t>15,44; 22,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,13; 39,44</t>
+          <t>24,69; 31,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,39</t>
+          <t>36,44; 43,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,08</t>
+          <t>35,78; 43,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 16,31</t>
+          <t>17,81; 67,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 35,24</t>
+          <t>25,51; 30,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 33,96</t>
+          <t>36,7; 41,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 32,7</t>
+          <t>36,83; 42,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 14,5</t>
+          <t>17,79; 56,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,91</t>
+          <t>24,59; 30,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,03; 42,42</t>
+          <t>46,71; 53,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 42,55</t>
+          <t>34,87; 41,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,22</t>
+          <t>29,52; 35,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,11</t>
+          <t>31,92; 37,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,44; 43,81</t>
+          <t>45,3; 51,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 43,16</t>
+          <t>36,28; 42,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 54,37</t>
+          <t>25,6; 35,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 30,44</t>
+          <t>29,55; 33,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 41,91</t>
+          <t>46,9; 51,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,83; 42,07</t>
+          <t>36,42; 40,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 44,45</t>
+          <t>29,06; 34,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,59; 30,65</t>
+          <t>28,09; 31,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,71; 53,47</t>
+          <t>37,95; 41,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,87; 41,02</t>
+          <t>34,32; 37,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,83; 36,03</t>
+          <t>13,48; 19,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 37,9</t>
+          <t>32,88; 36,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,3; 51,6</t>
+          <t>38,26; 41,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,28; 42,69</t>
+          <t>34,91; 38,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 37,41</t>
+          <t>18,64; 39,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,55; 33,51</t>
+          <t>30,77; 33,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,9; 51,32</t>
+          <t>38,48; 40,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,42; 40,92</t>
+          <t>35,15; 37,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 36,04</t>
+          <t>17,68; 29,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>29,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>35,98%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,2%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>34,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>39,85%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>36,61%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,23%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>32,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>39,78%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>36,3%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>20,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>28,09; 31,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>37,95; 41,44</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>34,32; 37,59</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>16,7; 19,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>32,88; 36,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>38,26; 41,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,91; 38,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,52; 31,36</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>30,77; 33,17</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>38,48; 40,98</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>35,15; 37,43</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,74; 25,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
